--- a/biology/Botanique/Harpullia/Harpullia.xlsx
+++ b/biology/Botanique/Harpullia/Harpullia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpullia est un genre de plantes de la famille des Sapindaceae. Ce sont 37 espèces de petits arbres ou d'arbres de taille moyenne originaires de l'est de l'Inde aux îles de l'Océan pacifique. On les rencontre généralement à la limite des forêts pluviales.
 Les 8 espèces que l'on peut rencontrer en Australie sont connues comme Tulipwood est sont appréciées pour leur bois sombre. Harpullia pendula est une espèce utilisée comme arbre d'ornement dans les villes de la côte est de l'Australie.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (18 novembre 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (18 novembre 2016) :
 Harpullia alata F.Müll.
 Harpullia arborea (Blanco) Radlk.
 Harpullia austrocaledonica Baill.
